--- a/20200930_QueimadasBrasil/incendios.xlsx
+++ b/20200930_QueimadasBrasil/incendios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dell\Documents\ICMBIO\Dados abertos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PESSOAL\DataAnalist\DataScience\Git\python_cases\20200930_QueimadasBrasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F33111F-7D79-4EEA-BDD5-B4FD58F5813F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="682" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queima" sheetId="6" r:id="rId1"/>
@@ -21,13 +22,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queima!$A$1:$X$326</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Queima-Simplificado'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2223,7 +2226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -2656,10 +2659,10 @@
   <cellStyles count="6">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="TableStyleLight1" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2689,7 +2692,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2727,7 +2730,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2762,6 +2765,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2797,9 +2817,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2972,13 +3009,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y326"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="J1" colorId="9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N194" sqref="N194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3125,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
@@ -3149,7 +3186,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -3212,7 +3249,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -3273,7 +3310,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -3334,7 +3371,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3397,7 +3434,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -3458,7 +3495,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -3519,7 +3556,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
@@ -3580,7 +3617,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
@@ -3643,7 +3680,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
@@ -3706,7 +3743,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
@@ -3767,7 +3804,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -3828,7 +3865,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
@@ -3893,7 +3930,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
@@ -3956,7 +3993,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
@@ -4017,7 +4054,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>31</v>
       </c>
@@ -4078,7 +4115,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
@@ -4139,7 +4176,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
@@ -4200,7 +4237,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
@@ -4261,7 +4298,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
@@ -4322,7 +4359,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
@@ -4383,7 +4420,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
@@ -4446,7 +4483,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -4507,7 +4544,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>39</v>
       </c>
@@ -4570,7 +4607,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -4633,7 +4670,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>592</v>
       </c>
@@ -4694,7 +4731,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>41</v>
       </c>
@@ -4820,7 +4857,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
@@ -4889,7 +4926,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>45</v>
       </c>
@@ -4952,7 +4989,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -5015,7 +5052,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>47</v>
       </c>
@@ -5076,7 +5113,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>48</v>
       </c>
@@ -5137,7 +5174,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>61</v>
       </c>
@@ -5198,7 +5235,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>49</v>
       </c>
@@ -5259,7 +5296,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>57</v>
       </c>
@@ -5320,7 +5357,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>50</v>
       </c>
@@ -5381,7 +5418,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>51</v>
       </c>
@@ -5442,7 +5479,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>52</v>
       </c>
@@ -5503,7 +5540,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>53</v>
       </c>
@@ -5564,7 +5601,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>54</v>
       </c>
@@ -5625,7 +5662,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>55</v>
       </c>
@@ -5686,7 +5723,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>56</v>
       </c>
@@ -5747,7 +5784,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
@@ -5808,7 +5845,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>59</v>
       </c>
@@ -5869,7 +5906,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>60</v>
       </c>
@@ -5930,7 +5967,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>582</v>
       </c>
@@ -5991,7 +6028,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>62</v>
       </c>
@@ -6052,7 +6089,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>75</v>
       </c>
@@ -6178,7 +6215,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>64</v>
       </c>
@@ -6253,7 +6290,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>65</v>
       </c>
@@ -6316,7 +6353,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>66</v>
       </c>
@@ -6377,7 +6414,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>67</v>
       </c>
@@ -6444,7 +6481,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>68</v>
       </c>
@@ -6505,7 +6542,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>69</v>
       </c>
@@ -6574,7 +6611,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>70</v>
       </c>
@@ -6698,7 +6735,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>72</v>
       </c>
@@ -6759,7 +6796,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>73</v>
       </c>
@@ -6820,7 +6857,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>74</v>
       </c>
@@ -6881,7 +6918,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>76</v>
       </c>
@@ -6942,7 +6979,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>78</v>
       </c>
@@ -7064,7 +7101,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>80</v>
       </c>
@@ -7125,7 +7162,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>82</v>
       </c>
@@ -7202,7 +7239,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>83</v>
       </c>
@@ -7265,7 +7302,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>84</v>
       </c>
@@ -7326,7 +7363,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>85</v>
       </c>
@@ -7387,7 +7424,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>86</v>
       </c>
@@ -7450,7 +7487,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>87</v>
       </c>
@@ -7511,7 +7548,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>88</v>
       </c>
@@ -7572,7 +7609,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>89</v>
       </c>
@@ -7633,7 +7670,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>77</v>
       </c>
@@ -7696,7 +7733,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>90</v>
       </c>
@@ -7759,7 +7796,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>91</v>
       </c>
@@ -7820,7 +7857,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>92</v>
       </c>
@@ -7897,7 +7934,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>81</v>
       </c>
@@ -7958,7 +7995,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>94</v>
       </c>
@@ -8019,7 +8056,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>95</v>
       </c>
@@ -8080,7 +8117,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>96</v>
       </c>
@@ -8141,7 +8178,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>93</v>
       </c>
@@ -8216,7 +8253,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>99</v>
       </c>
@@ -8277,7 +8314,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>97</v>
       </c>
@@ -8338,7 +8375,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>100</v>
       </c>
@@ -8403,7 +8440,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>102</v>
       </c>
@@ -8476,7 +8513,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>103</v>
       </c>
@@ -8537,7 +8574,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>104</v>
       </c>
@@ -8598,7 +8635,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>105</v>
       </c>
@@ -8659,7 +8696,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>106</v>
       </c>
@@ -8722,7 +8759,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>107</v>
       </c>
@@ -8783,7 +8820,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>108</v>
       </c>
@@ -8844,7 +8881,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>109</v>
       </c>
@@ -8905,7 +8942,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>110</v>
       </c>
@@ -8968,7 +9005,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>111</v>
       </c>
@@ -9029,7 +9066,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>112</v>
       </c>
@@ -9090,7 +9127,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>113</v>
       </c>
@@ -9151,7 +9188,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>114</v>
       </c>
@@ -9214,7 +9251,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>115</v>
       </c>
@@ -9275,7 +9312,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>117</v>
       </c>
@@ -9336,7 +9373,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>118</v>
       </c>
@@ -9399,7 +9436,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>119</v>
       </c>
@@ -9462,7 +9499,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>121</v>
       </c>
@@ -9523,7 +9560,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>125</v>
       </c>
@@ -9586,7 +9623,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>126</v>
       </c>
@@ -9647,7 +9684,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>127</v>
       </c>
@@ -9708,7 +9745,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>128</v>
       </c>
@@ -9769,7 +9806,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>129</v>
       </c>
@@ -9830,7 +9867,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>130</v>
       </c>
@@ -9891,7 +9928,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>131</v>
       </c>
@@ -9952,7 +9989,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>132</v>
       </c>
@@ -10013,7 +10050,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>133</v>
       </c>
@@ -10074,7 +10111,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>134</v>
       </c>
@@ -10135,7 +10172,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>137</v>
       </c>
@@ -10196,7 +10233,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>138</v>
       </c>
@@ -10265,7 +10302,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>139</v>
       </c>
@@ -10326,7 +10363,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>140</v>
       </c>
@@ -10387,7 +10424,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>141</v>
       </c>
@@ -10448,7 +10485,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>143</v>
       </c>
@@ -10509,7 +10546,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>144</v>
       </c>
@@ -10570,7 +10607,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>147</v>
       </c>
@@ -10631,7 +10668,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>148</v>
       </c>
@@ -10692,7 +10729,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>593</v>
       </c>
@@ -10753,7 +10790,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>149</v>
       </c>
@@ -10815,7 +10852,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>98</v>
       </c>
@@ -10876,7 +10913,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>150</v>
       </c>
@@ -10941,7 +10978,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>151</v>
       </c>
@@ -11004,7 +11041,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>595</v>
       </c>
@@ -11071,7 +11108,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>101</v>
       </c>
@@ -11148,7 +11185,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>152</v>
       </c>
@@ -11209,7 +11246,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>153</v>
       </c>
@@ -11270,7 +11307,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>154</v>
       </c>
@@ -11335,7 +11372,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>116</v>
       </c>
@@ -11402,7 +11439,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>155</v>
       </c>
@@ -11479,7 +11516,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>156</v>
       </c>
@@ -11544,7 +11581,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>120</v>
       </c>
@@ -11605,7 +11642,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>122</v>
       </c>
@@ -11666,7 +11703,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>135</v>
       </c>
@@ -11727,7 +11764,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>136</v>
       </c>
@@ -11788,7 +11825,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>145</v>
       </c>
@@ -11849,7 +11886,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>146</v>
       </c>
@@ -11910,7 +11947,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>157</v>
       </c>
@@ -11971,7 +12008,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>123</v>
       </c>
@@ -12032,7 +12069,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>124</v>
       </c>
@@ -12093,7 +12130,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>142</v>
       </c>
@@ -12154,7 +12191,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>158</v>
       </c>
@@ -12215,7 +12252,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>159</v>
       </c>
@@ -12276,7 +12313,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>160</v>
       </c>
@@ -12339,7 +12376,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>161</v>
       </c>
@@ -12400,7 +12437,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>162</v>
       </c>
@@ -12461,7 +12498,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>163</v>
       </c>
@@ -12534,7 +12571,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>164</v>
       </c>
@@ -12678,7 +12715,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>166</v>
       </c>
@@ -12755,7 +12792,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>167</v>
       </c>
@@ -12816,7 +12853,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>168</v>
       </c>
@@ -12879,7 +12916,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>225</v>
       </c>
@@ -12940,7 +12977,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>169</v>
       </c>
@@ -13064,7 +13101,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>171</v>
       </c>
@@ -13141,7 +13178,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>172</v>
       </c>
@@ -13202,7 +13239,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>173</v>
       </c>
@@ -13265,7 +13302,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>227</v>
       </c>
@@ -13338,7 +13375,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>196</v>
       </c>
@@ -13399,7 +13436,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>175</v>
       </c>
@@ -13472,7 +13509,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>176</v>
       </c>
@@ -13533,7 +13570,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>583</v>
       </c>
@@ -13602,7 +13639,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>177</v>
       </c>
@@ -13663,7 +13700,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>178</v>
       </c>
@@ -13728,7 +13765,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>179</v>
       </c>
@@ -13791,7 +13828,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>180</v>
       </c>
@@ -13858,7 +13895,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>181</v>
       </c>
@@ -13921,7 +13958,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>182</v>
       </c>
@@ -14059,7 +14096,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>184</v>
       </c>
@@ -14136,7 +14173,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>185</v>
       </c>
@@ -14207,7 +14244,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>186</v>
       </c>
@@ -14268,7 +14305,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>187</v>
       </c>
@@ -14335,7 +14372,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>188</v>
       </c>
@@ -14398,7 +14435,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>189</v>
       </c>
@@ -14469,7 +14506,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>190</v>
       </c>
@@ -14534,7 +14571,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>191</v>
       </c>
@@ -14605,7 +14642,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>218</v>
       </c>
@@ -14670,7 +14707,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>192</v>
       </c>
@@ -14731,7 +14768,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>193</v>
       </c>
@@ -14804,7 +14841,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>194</v>
       </c>
@@ -14865,7 +14902,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>195</v>
       </c>
@@ -14932,7 +14969,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>197</v>
       </c>
@@ -14993,7 +15030,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
         <v>198</v>
       </c>
@@ -15054,7 +15091,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
         <v>199</v>
       </c>
@@ -15119,7 +15156,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>596</v>
       </c>
@@ -15182,7 +15219,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
         <v>200</v>
       </c>
@@ -15320,7 +15357,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>711</v>
       </c>
@@ -15383,7 +15420,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>202</v>
       </c>
@@ -15452,7 +15489,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
         <v>203</v>
       </c>
@@ -15513,7 +15550,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>204</v>
       </c>
@@ -15574,7 +15611,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>205</v>
       </c>
@@ -15643,7 +15680,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>206</v>
       </c>
@@ -15704,7 +15741,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
         <v>207</v>
       </c>
@@ -15769,7 +15806,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>208</v>
       </c>
@@ -15838,7 +15875,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
         <v>209</v>
       </c>
@@ -15970,7 +16007,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
         <v>224</v>
       </c>
@@ -16031,7 +16068,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
         <v>211</v>
       </c>
@@ -16092,7 +16129,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
         <v>212</v>
       </c>
@@ -16165,7 +16202,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
         <v>213</v>
       </c>
@@ -16226,7 +16263,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
         <v>228</v>
       </c>
@@ -16291,7 +16328,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
         <v>214</v>
       </c>
@@ -16368,7 +16405,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
         <v>707</v>
       </c>
@@ -16433,7 +16470,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
         <v>215</v>
       </c>
@@ -16496,7 +16533,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
         <v>216</v>
       </c>
@@ -16557,7 +16594,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>217</v>
       </c>
@@ -16632,7 +16669,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
         <v>584</v>
       </c>
@@ -16693,7 +16730,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>219</v>
       </c>
@@ -16768,7 +16805,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
         <v>573</v>
       </c>
@@ -16829,7 +16866,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
         <v>220</v>
       </c>
@@ -16890,7 +16927,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
         <v>221</v>
       </c>
@@ -16951,7 +16988,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>222</v>
       </c>
@@ -17012,7 +17049,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>223</v>
       </c>
@@ -17073,7 +17110,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
         <v>226</v>
       </c>
@@ -17138,7 +17175,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
         <v>174</v>
       </c>
@@ -17201,7 +17238,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
         <v>229</v>
       </c>
@@ -17262,7 +17299,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
         <v>585</v>
       </c>
@@ -17325,7 +17362,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
         <v>231</v>
       </c>
@@ -17386,7 +17423,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
         <v>232</v>
       </c>
@@ -17447,7 +17484,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>233</v>
       </c>
@@ -17518,7 +17555,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
         <v>234</v>
       </c>
@@ -17587,7 +17624,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
         <v>235</v>
       </c>
@@ -17648,7 +17685,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
         <v>236</v>
       </c>
@@ -17709,7 +17746,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
         <v>237</v>
       </c>
@@ -17770,7 +17807,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
         <v>238</v>
       </c>
@@ -17831,7 +17868,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
         <v>239</v>
       </c>
@@ -17896,7 +17933,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
         <v>240</v>
       </c>
@@ -17957,7 +17994,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
         <v>241</v>
       </c>
@@ -18018,7 +18055,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
         <v>242</v>
       </c>
@@ -18079,7 +18116,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
         <v>243</v>
       </c>
@@ -18142,7 +18179,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
         <v>244</v>
       </c>
@@ -18203,7 +18240,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
         <v>245</v>
       </c>
@@ -18264,7 +18301,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
         <v>230</v>
       </c>
@@ -18325,7 +18362,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
         <v>246</v>
       </c>
@@ -18386,7 +18423,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
         <v>247</v>
       </c>
@@ -18447,7 +18484,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
         <v>248</v>
       </c>
@@ -18524,7 +18561,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
         <v>249</v>
       </c>
@@ -18593,7 +18630,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
         <v>250</v>
       </c>
@@ -18662,7 +18699,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
         <v>251</v>
       </c>
@@ -18733,7 +18770,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
         <v>598</v>
       </c>
@@ -18796,7 +18833,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
         <v>252</v>
       </c>
@@ -18857,7 +18894,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
         <v>253</v>
       </c>
@@ -18918,7 +18955,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
         <v>254</v>
       </c>
@@ -18979,7 +19016,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
         <v>255</v>
       </c>
@@ -19040,7 +19077,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
         <v>256</v>
       </c>
@@ -19101,7 +19138,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
         <v>257</v>
       </c>
@@ -19162,7 +19199,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
         <v>258</v>
       </c>
@@ -19237,7 +19274,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
         <v>259</v>
       </c>
@@ -19298,7 +19335,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
         <v>260</v>
       </c>
@@ -19359,7 +19396,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
         <v>262</v>
       </c>
@@ -19420,7 +19457,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
         <v>263</v>
       </c>
@@ -19483,7 +19520,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
         <v>264</v>
       </c>
@@ -19544,7 +19581,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
         <v>265</v>
       </c>
@@ -19605,7 +19642,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
         <v>267</v>
       </c>
@@ -19666,7 +19703,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
         <v>269</v>
       </c>
@@ -19733,7 +19770,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
         <v>270</v>
       </c>
@@ -19798,7 +19835,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
         <v>271</v>
       </c>
@@ -19859,7 +19896,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
         <v>303</v>
       </c>
@@ -19920,7 +19957,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
         <v>273</v>
       </c>
@@ -19985,7 +20022,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
         <v>274</v>
       </c>
@@ -20046,7 +20083,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
         <v>275</v>
       </c>
@@ -20107,7 +20144,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
         <v>280</v>
       </c>
@@ -20180,7 +20217,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
         <v>315</v>
       </c>
@@ -20241,7 +20278,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
         <v>261</v>
       </c>
@@ -20302,7 +20339,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
         <v>266</v>
       </c>
@@ -20363,7 +20400,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
         <v>276</v>
       </c>
@@ -20424,7 +20461,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
         <v>268</v>
       </c>
@@ -20485,7 +20522,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
         <v>277</v>
       </c>
@@ -20546,7 +20583,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
         <v>283</v>
       </c>
@@ -20609,7 +20646,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
         <v>278</v>
       </c>
@@ -20672,7 +20709,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
         <v>288</v>
       </c>
@@ -20733,7 +20770,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
         <v>290</v>
       </c>
@@ -20794,7 +20831,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
         <v>304</v>
       </c>
@@ -20855,7 +20892,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
         <v>279</v>
       </c>
@@ -20916,7 +20953,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
         <v>306</v>
       </c>
@@ -20977,7 +21014,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
         <v>308</v>
       </c>
@@ -21046,7 +21083,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
         <v>281</v>
       </c>
@@ -21107,7 +21144,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
         <v>282</v>
       </c>
@@ -21168,7 +21205,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
         <v>310</v>
       </c>
@@ -21233,7 +21270,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
         <v>284</v>
       </c>
@@ -21294,7 +21331,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
         <v>285</v>
       </c>
@@ -21357,7 +21394,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
         <v>286</v>
       </c>
@@ -21479,7 +21516,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
         <v>289</v>
       </c>
@@ -21540,7 +21577,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
         <v>291</v>
       </c>
@@ -21601,7 +21638,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
         <v>292</v>
       </c>
@@ -21662,7 +21699,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="s">
         <v>293</v>
       </c>
@@ -21723,7 +21760,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
         <v>295</v>
       </c>
@@ -21784,7 +21821,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
         <v>586</v>
       </c>
@@ -21845,7 +21882,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
         <v>296</v>
       </c>
@@ -21906,7 +21943,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
         <v>297</v>
       </c>
@@ -21967,7 +22004,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
         <v>298</v>
       </c>
@@ -22028,7 +22065,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
         <v>299</v>
       </c>
@@ -22089,7 +22126,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
         <v>294</v>
       </c>
@@ -22150,7 +22187,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
         <v>272</v>
       </c>
@@ -22211,7 +22248,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
         <v>300</v>
       </c>
@@ -22274,7 +22311,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
         <v>587</v>
       </c>
@@ -22335,7 +22372,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
         <v>588</v>
       </c>
@@ -22396,7 +22433,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
         <v>301</v>
       </c>
@@ -22457,7 +22494,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
         <v>302</v>
       </c>
@@ -22518,7 +22555,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
         <v>305</v>
       </c>
@@ -22579,7 +22616,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
         <v>307</v>
       </c>
@@ -22644,7 +22681,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
         <v>309</v>
       </c>
@@ -22705,7 +22742,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
         <v>311</v>
       </c>
@@ -22766,7 +22803,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
         <v>312</v>
       </c>
@@ -22827,7 +22864,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
         <v>313</v>
       </c>
@@ -22888,7 +22925,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
         <v>314</v>
       </c>
@@ -22949,7 +22986,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
         <v>316</v>
       </c>
@@ -23012,7 +23049,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
         <v>317</v>
       </c>
@@ -23073,7 +23110,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
         <v>318</v>
       </c>
@@ -23140,7 +23177,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
         <v>325</v>
       </c>
@@ -23215,7 +23252,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
         <v>319</v>
       </c>
@@ -23280,7 +23317,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
         <v>320</v>
       </c>
@@ -23341,7 +23378,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
         <v>321</v>
       </c>
@@ -23402,7 +23439,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
         <v>600</v>
       </c>
@@ -23463,7 +23500,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
         <v>322</v>
       </c>
@@ -23524,7 +23561,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
         <v>323</v>
       </c>
@@ -23589,7 +23626,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="14" t="s">
         <v>324</v>
       </c>
@@ -23651,17 +23688,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X326">
+  <autoFilter ref="A1:X326" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="CR10 Cuiabá/MT"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="9">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:Z326">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z326">
       <sortCondition ref="B1:B326"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:Z326">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z326">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23670,10 +23712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -28787,8 +28829,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D364">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D364">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
@@ -28798,7 +28840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28908,7 +28950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28928,7 +28970,7 @@
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f ca="1">NOW()</f>
-        <v>44015.66912766204</v>
+        <v>44104.547122337965</v>
       </c>
     </row>
   </sheetData>
